--- a/docs/assets/disciplinas/LOM3223.xlsx
+++ b/docs/assets/disciplinas/LOM3223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
     <t>5840726 - Cristina Bormio Nunes</t>
@@ -499,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,97 +635,97 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -732,6 +735,14 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3223.xlsx
+++ b/docs/assets/disciplinas/LOM3223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao aluno os conhecimentos básicos de materiais magnéticos e supercondutores visando sua aplicação em dispositivos.</t>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,63 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Magnetostática. Magnetismo de elétrons. Ferromagnetismo e interações de troca. Antiferromagnetismo e tipos de ordenamento magnético. Magnetismo em nanoescala. Ressonância magnética. Métodos experimentais de medições magnéticas. Materiais magnéticos. Aplicações de materiais magnéticos.
-O fenômeno da supercondutividade. Propriedades elétricas, magnéticas e termodinâmicas de supercondutores. Teorias fenomenológicas de supercondutividade. Teoria microscópica de supercondutividade. Materiais supercondutores. Propriedades de transporte. Técnicas de caracterização de materiais supercondutores. Aplicações.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Revisão de magnetostática. Magnetismo de elétrons. Ferromagnetismo e interações de troca. Antiferromagnetismo e tipos de ordenamento magnético. Magnetismo em nanoescala. Ressonância magnética. Métodos experimentais de medições magnéticas. Materiais magnéticos. Aplicações de materiais magnéticos.
-O fenômeno da supercondutividade. Propriedades elétricas, magnéticas e termodinâmicas de supercondutores. Teorias fenomenológicas de supercondutividade. Teoria microscópica de supercondutividade. Materiais supercondutores. Propriedades de transporte. Técnicas de caracterização de materiais supercondutores. Aplicações.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>JILES, D. C. Introduction to Magnetism and Magnetic Materials, CRC Press, 1998.
-COEY, J. M. D. Magnetism and Magnetic Materials, Cambridge University Press, 2010.
-BUSCHOW, K. H. J.; DE BOER, F. R. Physics of Magnetism and Magnetic Materials, Springer, 2003.
-CULLITY, B. D.; GRAHAM, C. D. Introduction to Magnetic Materials, Wiley-IEEE Press, 2008.
-POOLE, C. P. et al., Superconductivity, Academic Press, 2007.
-SHEAHEN, T. P. Introduction to High-Temperature Superconductivity, Kluwer Academic, 2002.
-LEE, P. J. Engineering Superconductivity, Wiley-IEEE Press, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -502,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -691,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -702,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3223.xlsx
+++ b/docs/assets/disciplinas/LOM3223.xlsx
@@ -121,11 +121,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3206 -  Eletrônica  (Requisito)
+    <t xml:space="preserve">LOM3215 -  Física do Estado Sólido  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3215 -  Física do Estado Sólido  (Requisito)
+    <t xml:space="preserve">LOM3263 -  Eletrônica Fundamental e Aplicada  (Requisito)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3223.xlsx
+++ b/docs/assets/disciplinas/LOM3223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the student with the basic knowledge of magnetic and superconducting materials aiming their application in devices.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Fundamental concepts of magnetic properties of matter. Electron magnetism. Ferromagnetism. Magnetic Materials and Applications: soft and hard. Exchange interaction in oxides and metals. Magnetism - Classical Phenomenology: diamagnetism and paramagnetism. Magnetism - Quantum Phenomenology: ferromagnetism. Magnetic Anisotropy and Spin-Orbit Interaction. Magnetostriction and magnetostrictive materials -Introduction and applications. Basic concepts of superconductivity. Superconductivity - Quantum Origin. Superwave – Consequences. Quantum Interference – SQUID. Superconducting Materials and Applications</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
@@ -109,7 +115,7 @@
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
+    <t>A nota final , antes da recuperação é dada pela média aritmética das notas das avaliações escritas e da nota do seminário apresentado, se aplicável.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -601,15 +607,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -620,12 +632,18 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -636,77 +654,83 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3223.xlsx
+++ b/docs/assets/disciplinas/LOM3223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar ao aluno os conhecimentos básicos de materiais magnéticos e supercondutores visando sua aplicação em dispositivos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with the basic knowledge of magnetic and superconducting materials aiming their application in devices.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with the basic knowledge of magnetic and superconducting materials aiming their application in devices.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Conceitos fundamentais de propriedades magnéticas da matéria. Magnetismo de elétrons. Ferromagnetismo. Materiais magnéticos e Aplicações: moles e duros. Interação de troca em óxidos e metais. Magnetismo - Fenomenologia Clássica: diamagnetismo e paramagnetismo. Magnetismo - Fenomenologia Quântica: ferromagnetismo. Anisotropia Magnética e Interação Spin-Órbita. Magnetostricção e materiais magnetostrictivos -Introdução e aplicações. Conceitos básicos de supercondutividade. Supercondutividade - Origem Quântica. Super-onda – Consequências. Interferencia quântica – SQUID. Materiais Supercondutores e Aplicações.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -103,25 +112,31 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840726 - Cristina Bormio Nunes</t>
+    <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+    <t>A nota final , antes da recuperação é dada pela média aritmética das notas das avaliações escritas e da nota do seminário apresentado, se aplicável.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final , antes da recuperação é dada pela média aritmética das notas das avaliações escritas e da nota do seminário apresentado, se aplicável.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>JILES, D. C. Introduction to Magnetism and Magnetic Materials, CRC Press, 1998.
+COEY, J. M. D. Magnetism and Magnetic Materials, Cambridge University Press, 2010.
+BUSCHOW, K. H. J.; DE BOER, F. R. Physics of Magnetism and Magnetic Materials, Springer, 2003.
+CULLITY, B. D.; GRAHAM, C. D. Introduction to Magnetic Materials, Wiley-IEEE Press, 2008.
+POOLE, C. P. et al., Superconductivity, Academic Press, 2007.
+SHEAHEN, T. P. Introduction to High-Temperature Superconductivity, Kluwer Academic, 2002.
+LEE, P. J. Engineering Superconductivity, Wiley-IEEE Press, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -619,118 +634,134 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
